--- a/db_data/cert_category.xlsx
+++ b/db_data/cert_category.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\IdeaProjects\QmServer\db_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6FFEC46-314B-4990-A869-C46C85AFFB93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBCD3BF-4AB2-41EA-91F9-379FF159B13B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14700" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
   <si>
     <t>region</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,10 +47,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CCC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -101,10 +97,6 @@
     <t>EMC</t>
   </si>
   <si>
-    <t>TW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BSMI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -113,23 +105,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>US</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FCC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Safety</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_domestic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hold_requirement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sample_qty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time_cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comments</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TWN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GLO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -173,16 +197,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -464,197 +491,222 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1484375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.8984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1484375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.94921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.94921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.44921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.44921875" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A2" s="1" t="s">
+      <c r="E1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D3" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="D5" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="D10" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="C12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A12" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="D13" s="3" t="b">
         <v>0</v>
@@ -663,5 +715,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/db_data/cert_category.xlsx
+++ b/db_data/cert_category.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25018"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\IdeaProjects\QmServer\db_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBCD3BF-4AB2-41EA-91F9-379FF159B13B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C088B69-0319-4960-89D9-D08F9C5FF907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -67,10 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CE-LVD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -141,20 +137,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CHN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TWN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GLO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>亚洲|中国</t>
+  </si>
+  <si>
+    <t>亚洲|中国台湾</t>
+  </si>
+  <si>
+    <t>欧洲|欧盟</t>
+  </si>
+  <si>
+    <t>北美洲|美国</t>
+  </si>
+  <si>
+    <t>全球|全球</t>
   </si>
 </sst>
 </file>
@@ -494,12 +489,12 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="6.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.94921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.046875" style="1" bestFit="1" customWidth="1"/>
@@ -526,27 +521,27 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
@@ -560,7 +555,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A3" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>9</v>
@@ -574,7 +569,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>7</v>
@@ -588,10 +583,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>4</v>
@@ -602,10 +597,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A6" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>6</v>
@@ -616,13 +611,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="C7" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="3" t="b">
         <v>1</v>
@@ -630,13 +625,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A8" s="3" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="3" t="b">
         <v>1</v>
@@ -644,10 +639,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A9" s="3" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>6</v>
@@ -658,10 +653,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A10" s="3" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>8</v>
@@ -672,10 +667,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A11" s="3" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>8</v>
@@ -689,7 +684,7 @@
         <v>31</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>6</v>
@@ -703,10 +698,10 @@
         <v>32</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="D13" s="3" t="b">
         <v>0</v>

--- a/db_data/cert_category.xlsx
+++ b/db_data/cert_category.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\IdeaProjects\QmServer\db_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C088B69-0319-4960-89D9-D08F9C5FF907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18FE5DE-842E-447E-AACB-506852D89642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-78" yWindow="2874" windowWidth="17100" windowHeight="9900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
   <si>
     <t>region</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -150,6 +150,14 @@
   </si>
   <si>
     <t>全球|全球</t>
+  </si>
+  <si>
+    <t>亚洲|泰国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NTBC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -486,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -611,15 +619,15 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A7" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="3" t="b">
+        <v>6</v>
+      </c>
+      <c r="D7" s="4" t="b">
         <v>1</v>
       </c>
     </row>
@@ -628,10 +636,10 @@
         <v>30</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="3" t="b">
         <v>1</v>
@@ -642,10 +650,10 @@
         <v>30</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D9" s="3" t="b">
         <v>1</v>
@@ -656,10 +664,10 @@
         <v>30</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D10" s="3" t="b">
         <v>1</v>
@@ -670,7 +678,7 @@
         <v>30</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>8</v>
@@ -681,13 +689,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A12" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D12" s="3" t="b">
         <v>1</v>
@@ -695,15 +703,29 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="3" t="b">
+      <c r="D14" s="3" t="b">
         <v>0</v>
       </c>
     </row>
